--- a/testing/RE_testdata - Manual_check.xlsx
+++ b/testing/RE_testdata - Manual_check.xlsx
@@ -4846,10 +4846,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5155,21 +5155,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:K200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="H171" sqref="H171"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="H9" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="105.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="168.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5220,8 +5220,12 @@
       <c r="H2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" t="b">
+        <f>IF(AND(G2=H2, G2="ok"), TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5246,8 +5250,12 @@
       <c r="H3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" t="b">
+        <f t="shared" ref="J3:J66" si="0">IF(AND(G3=H3, G3="ok"), TRUE, FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5272,8 +5280,12 @@
       <c r="H4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5298,8 +5310,12 @@
       <c r="H5" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5324,8 +5340,12 @@
       <c r="H6" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5350,8 +5370,12 @@
       <c r="H7" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5376,8 +5400,12 @@
       <c r="H8" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5402,8 +5430,12 @@
       <c r="H9" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -5428,8 +5460,12 @@
       <c r="H10" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5454,8 +5490,12 @@
       <c r="H11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5480,8 +5520,12 @@
       <c r="H12" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -5506,8 +5550,12 @@
       <c r="H13" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5532,8 +5580,12 @@
       <c r="H14" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -5558,8 +5610,12 @@
       <c r="H15" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5584,8 +5640,12 @@
       <c r="H16" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5610,8 +5670,12 @@
       <c r="H17" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -5636,8 +5700,12 @@
       <c r="H18" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -5662,8 +5730,12 @@
       <c r="H19" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -5688,8 +5760,12 @@
       <c r="H20" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -5714,8 +5790,12 @@
       <c r="H21" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -5740,8 +5820,12 @@
       <c r="H22" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -5766,8 +5850,12 @@
       <c r="H23" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -5792,8 +5880,12 @@
       <c r="H24" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -5818,8 +5910,12 @@
       <c r="H25" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -5844,8 +5940,12 @@
       <c r="H26" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -5870,8 +5970,12 @@
       <c r="H27" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -5896,8 +6000,12 @@
       <c r="H28" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -5922,8 +6030,12 @@
       <c r="H29" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -5948,8 +6060,12 @@
       <c r="H30" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -5974,8 +6090,12 @@
       <c r="H31" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -6000,8 +6120,12 @@
       <c r="H32" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -6026,8 +6150,12 @@
       <c r="H33" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -6052,8 +6180,12 @@
       <c r="H34" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -6078,11 +6210,15 @@
       <c r="H35" t="s">
         <v>284</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -6107,9 +6243,13 @@
       <c r="H36" t="s">
         <v>284</v>
       </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="2"/>
+      <c r="J36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -6134,9 +6274,13 @@
       <c r="H37" t="s">
         <v>284</v>
       </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="2"/>
+      <c r="J37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -6161,9 +6305,13 @@
       <c r="H38" t="s">
         <v>284</v>
       </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="2"/>
+      <c r="J38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -6188,9 +6336,13 @@
       <c r="H39" t="s">
         <v>284</v>
       </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="2"/>
+      <c r="J39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>60</v>
       </c>
@@ -6215,9 +6367,13 @@
       <c r="H40" t="s">
         <v>284</v>
       </c>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="2"/>
+      <c r="J40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -6242,9 +6398,13 @@
       <c r="H41" t="s">
         <v>284</v>
       </c>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="2"/>
+      <c r="J41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -6269,8 +6429,12 @@
       <c r="H42" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -6295,8 +6459,12 @@
       <c r="H43" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6489,12 @@
       <c r="H44" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -6347,8 +6519,12 @@
       <c r="H45" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -6373,8 +6549,12 @@
       <c r="H46" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -6399,8 +6579,12 @@
       <c r="H47" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -6425,8 +6609,12 @@
       <c r="H48" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -6451,8 +6639,12 @@
       <c r="H49" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -6477,8 +6669,12 @@
       <c r="H50" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -6503,8 +6699,12 @@
       <c r="H51" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -6529,8 +6729,12 @@
       <c r="H52" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -6555,8 +6759,12 @@
       <c r="H53" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -6581,8 +6789,12 @@
       <c r="H54" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J54" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -6607,8 +6819,12 @@
       <c r="H55" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J55" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -6633,8 +6849,12 @@
       <c r="H56" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -6659,8 +6879,12 @@
       <c r="H57" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -6685,8 +6909,12 @@
       <c r="H58" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -6711,8 +6939,12 @@
       <c r="H59" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -6737,8 +6969,12 @@
       <c r="H60" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J60" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -6763,8 +6999,12 @@
       <c r="H61" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -6789,8 +7029,12 @@
       <c r="H62" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J62" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -6815,8 +7059,12 @@
       <c r="H63" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -6841,8 +7089,12 @@
       <c r="H64" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -6867,8 +7119,12 @@
       <c r="H65" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -6893,8 +7149,12 @@
       <c r="H66" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J66" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -6919,8 +7179,12 @@
       <c r="H67" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J67" t="b">
+        <f t="shared" ref="J67:J130" si="1">IF(AND(G67=H67, G67="ok"), TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>121</v>
       </c>
@@ -6945,8 +7209,12 @@
       <c r="H68" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J68" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -6971,8 +7239,12 @@
       <c r="H69" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J69" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>121</v>
       </c>
@@ -6997,8 +7269,12 @@
       <c r="H70" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J70" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>121</v>
       </c>
@@ -7023,8 +7299,12 @@
       <c r="H71" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -7049,8 +7329,12 @@
       <c r="H72" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J72" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -7075,8 +7359,12 @@
       <c r="H73" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J73" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -7101,8 +7389,12 @@
       <c r="H74" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J74" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -7127,8 +7419,12 @@
       <c r="H75" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J75" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>142</v>
       </c>
@@ -7153,8 +7449,12 @@
       <c r="H76" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J76" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>142</v>
       </c>
@@ -7179,8 +7479,12 @@
       <c r="H77" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J77" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>142</v>
       </c>
@@ -7205,8 +7509,12 @@
       <c r="H78" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J78" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>142</v>
       </c>
@@ -7231,8 +7539,12 @@
       <c r="H79" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J79" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>142</v>
       </c>
@@ -7257,8 +7569,12 @@
       <c r="H80" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J80" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -7283,8 +7599,12 @@
       <c r="H81" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -7309,8 +7629,12 @@
       <c r="H82" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J82" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>142</v>
       </c>
@@ -7335,8 +7659,12 @@
       <c r="H83" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J83" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>142</v>
       </c>
@@ -7361,11 +7689,15 @@
       <c r="H84" t="s">
         <v>285</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I84" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J84" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>142</v>
       </c>
@@ -7390,9 +7722,13 @@
       <c r="H85" t="s">
         <v>285</v>
       </c>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="2"/>
+      <c r="J85" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>142</v>
       </c>
@@ -7417,9 +7753,13 @@
       <c r="H86" t="s">
         <v>285</v>
       </c>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I86" s="2"/>
+      <c r="J86" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>142</v>
       </c>
@@ -7444,9 +7784,13 @@
       <c r="H87" t="s">
         <v>285</v>
       </c>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="2"/>
+      <c r="J87" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>142</v>
       </c>
@@ -7471,9 +7815,13 @@
       <c r="H88" t="s">
         <v>285</v>
       </c>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I88" s="2"/>
+      <c r="J88" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>142</v>
       </c>
@@ -7498,9 +7846,13 @@
       <c r="H89" t="s">
         <v>285</v>
       </c>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I89" s="2"/>
+      <c r="J89" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>142</v>
       </c>
@@ -7525,8 +7877,12 @@
       <c r="H90" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J90" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>142</v>
       </c>
@@ -7551,8 +7907,12 @@
       <c r="H91" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J91" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>142</v>
       </c>
@@ -7577,8 +7937,12 @@
       <c r="H92" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J92" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>142</v>
       </c>
@@ -7603,8 +7967,12 @@
       <c r="H93" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J93" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>142</v>
       </c>
@@ -7629,8 +7997,12 @@
       <c r="H94" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J94" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>166</v>
       </c>
@@ -7655,8 +8027,12 @@
       <c r="H95" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J95" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>166</v>
       </c>
@@ -7681,8 +8057,12 @@
       <c r="H96" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J96" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>166</v>
       </c>
@@ -7707,8 +8087,12 @@
       <c r="H97" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J97" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>166</v>
       </c>
@@ -7733,8 +8117,12 @@
       <c r="H98" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J98" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>166</v>
       </c>
@@ -7759,8 +8147,12 @@
       <c r="H99" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J99" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>166</v>
       </c>
@@ -7785,8 +8177,12 @@
       <c r="H100" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J100" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -7811,8 +8207,12 @@
       <c r="H101" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J101" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>166</v>
       </c>
@@ -7837,8 +8237,12 @@
       <c r="H102" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J102" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>166</v>
       </c>
@@ -7863,8 +8267,12 @@
       <c r="H103" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J103" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>166</v>
       </c>
@@ -7889,8 +8297,12 @@
       <c r="H104" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J104" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>183</v>
       </c>
@@ -7915,11 +8327,15 @@
       <c r="H105" t="s">
         <v>285</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="I105" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J105" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>183</v>
       </c>
@@ -7944,9 +8360,13 @@
       <c r="H106" t="s">
         <v>285</v>
       </c>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I106" s="3"/>
+      <c r="J106" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>183</v>
       </c>
@@ -7971,8 +8391,12 @@
       <c r="H107" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J107" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>183</v>
       </c>
@@ -7997,8 +8421,12 @@
       <c r="H108" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J108" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>183</v>
       </c>
@@ -8023,8 +8451,12 @@
       <c r="H109" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J109" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>183</v>
       </c>
@@ -8049,8 +8481,12 @@
       <c r="H110" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J110" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>183</v>
       </c>
@@ -8075,8 +8511,12 @@
       <c r="H111" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J111" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>183</v>
       </c>
@@ -8101,8 +8541,12 @@
       <c r="H112" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J112" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>183</v>
       </c>
@@ -8127,8 +8571,12 @@
       <c r="H113" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J113" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>183</v>
       </c>
@@ -8153,8 +8601,12 @@
       <c r="H114" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J114" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>197</v>
       </c>
@@ -8179,8 +8631,12 @@
       <c r="H115" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J115" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>197</v>
       </c>
@@ -8205,8 +8661,12 @@
       <c r="H116" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J116" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>197</v>
       </c>
@@ -8231,8 +8691,12 @@
       <c r="H117" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J117" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>197</v>
       </c>
@@ -8257,8 +8721,12 @@
       <c r="H118" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J118" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>197</v>
       </c>
@@ -8283,8 +8751,12 @@
       <c r="H119" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J119" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>197</v>
       </c>
@@ -8309,8 +8781,12 @@
       <c r="H120" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J120" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>197</v>
       </c>
@@ -8335,8 +8811,12 @@
       <c r="H121" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J121" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>197</v>
       </c>
@@ -8361,8 +8841,12 @@
       <c r="H122" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J122" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>197</v>
       </c>
@@ -8387,8 +8871,12 @@
       <c r="H123" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J123" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>197</v>
       </c>
@@ -8413,8 +8901,12 @@
       <c r="H124" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J124" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>197</v>
       </c>
@@ -8439,8 +8931,12 @@
       <c r="H125" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J125" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>197</v>
       </c>
@@ -8465,8 +8961,12 @@
       <c r="H126" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J126" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>197</v>
       </c>
@@ -8491,8 +8991,12 @@
       <c r="H127" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J127" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>217</v>
       </c>
@@ -8517,11 +9021,15 @@
       <c r="H128" t="s">
         <v>285</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="I128" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J128" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>217</v>
       </c>
@@ -8546,9 +9054,13 @@
       <c r="H129" t="s">
         <v>285</v>
       </c>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I129" s="3"/>
+      <c r="J129" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>217</v>
       </c>
@@ -8573,8 +9085,12 @@
       <c r="H130" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J130" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>217</v>
       </c>
@@ -8599,8 +9115,12 @@
       <c r="H131" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J131" t="b">
+        <f t="shared" ref="J131:J166" si="2">IF(AND(G131=H131, G131="ok"), TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>217</v>
       </c>
@@ -8625,8 +9145,12 @@
       <c r="H132" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J132" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>217</v>
       </c>
@@ -8651,8 +9175,12 @@
       <c r="H133" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J133" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>217</v>
       </c>
@@ -8677,8 +9205,12 @@
       <c r="H134" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J134" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>217</v>
       </c>
@@ -8703,8 +9235,12 @@
       <c r="H135" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J135" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>217</v>
       </c>
@@ -8729,8 +9265,12 @@
       <c r="H136" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J136" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>217</v>
       </c>
@@ -8755,8 +9295,12 @@
       <c r="H137" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J137" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>217</v>
       </c>
@@ -8781,8 +9325,12 @@
       <c r="H138" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J138" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>236</v>
       </c>
@@ -8807,8 +9355,12 @@
       <c r="H139" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J139" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>236</v>
       </c>
@@ -8833,8 +9385,12 @@
       <c r="H140" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J140" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>236</v>
       </c>
@@ -8859,8 +9415,12 @@
       <c r="H141" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J141" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>236</v>
       </c>
@@ -8885,8 +9445,12 @@
       <c r="H142" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J142" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>236</v>
       </c>
@@ -8911,8 +9475,12 @@
       <c r="H143" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J143" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>236</v>
       </c>
@@ -8937,8 +9505,12 @@
       <c r="H144" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J144" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>236</v>
       </c>
@@ -8963,8 +9535,12 @@
       <c r="H145" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J145" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>236</v>
       </c>
@@ -8989,8 +9565,12 @@
       <c r="H146" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J146" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>236</v>
       </c>
@@ -9015,8 +9595,12 @@
       <c r="H147" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J147" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>236</v>
       </c>
@@ -9041,8 +9625,12 @@
       <c r="H148" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J148" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>254</v>
       </c>
@@ -9067,8 +9655,12 @@
       <c r="H149" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J149" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>254</v>
       </c>
@@ -9093,8 +9685,12 @@
       <c r="H150" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J150" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>254</v>
       </c>
@@ -9119,8 +9715,12 @@
       <c r="H151" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J151" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>254</v>
       </c>
@@ -9145,8 +9745,12 @@
       <c r="H152" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J152" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>254</v>
       </c>
@@ -9171,8 +9775,12 @@
       <c r="H153" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J153" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>254</v>
       </c>
@@ -9197,8 +9805,12 @@
       <c r="H154" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J154" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>261</v>
       </c>
@@ -9223,8 +9835,12 @@
       <c r="H155" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J155" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>261</v>
       </c>
@@ -9249,8 +9865,12 @@
       <c r="H156" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J156" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>261</v>
       </c>
@@ -9275,8 +9895,12 @@
       <c r="H157" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J157" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>261</v>
       </c>
@@ -9301,8 +9925,12 @@
       <c r="H158" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J158" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>261</v>
       </c>
@@ -9327,8 +9955,12 @@
       <c r="H159" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J159" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>261</v>
       </c>
@@ -9353,8 +9985,12 @@
       <c r="H160" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J160" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>261</v>
       </c>
@@ -9379,8 +10015,12 @@
       <c r="H161" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J161" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>274</v>
       </c>
@@ -9405,8 +10045,12 @@
       <c r="H162" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J162" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>274</v>
       </c>
@@ -9431,8 +10075,12 @@
       <c r="H163" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J163" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>274</v>
       </c>
@@ -9457,8 +10105,12 @@
       <c r="H164" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J164" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>274</v>
       </c>
@@ -9483,8 +10135,12 @@
       <c r="H165" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J165" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>274</v>
       </c>
@@ -9509,8 +10165,12 @@
       <c r="H166" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J166" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G167">
         <f>COUNTA(G2:G166)</f>
         <v>165</v>
@@ -9519,8 +10179,16 @@
         <f>COUNTA(H2:H166)</f>
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J167">
+        <f>COUNTIF(J2:J166, TRUE)</f>
+        <v>123</v>
+      </c>
+      <c r="K167">
+        <f>J167/G167</f>
+        <v>0.74545454545454548</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G168">
         <f>COUNTIF(G2:G166, "ok")</f>
         <v>128</v>
@@ -9530,7 +10198,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G169">
         <f>(G168/G167)*100%</f>
         <v>0.77575757575757576</v>
@@ -9540,13 +10208,13 @@
         <v>0.79393939393939394</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
